--- a/analysis_results.xlsx
+++ b/analysis_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vishaldubey/Vishal/NIH/Work/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A4D192-80FF-E840-B693-E1E24D9DE39E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E70DA2-E0C4-CC42-888C-57740815B7C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3380" yWindow="2420" windowWidth="29140" windowHeight="17760" xr2:uid="{28698283-B347-4141-9243-14C208084905}"/>
+    <workbookView xWindow="2340" yWindow="1360" windowWidth="29140" windowHeight="17760" xr2:uid="{28698283-B347-4141-9243-14C208084905}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="51">
   <si>
     <t>SSN</t>
   </si>
@@ -111,9 +111,6 @@
     <t>SSN4 + First Name + Last Name + YOB</t>
   </si>
   <si>
-    <t>Acumen</t>
-  </si>
-  <si>
     <t>SSN4 + First Name + Last Name</t>
   </si>
   <si>
@@ -169,6 +166,27 @@
   </si>
   <si>
     <t>SHA-512</t>
+  </si>
+  <si>
+    <t>Contractor</t>
+  </si>
+  <si>
+    <t>Token 1: NO DOB OPTIMIZATION</t>
+  </si>
+  <si>
+    <t>Token 4: NO DOB OPTIMIZATION</t>
+  </si>
+  <si>
+    <t>Token 5: NO DOB OPTIMIZATION</t>
+  </si>
+  <si>
+    <t>Token 7: NO DOB OPTIMIZATION</t>
+  </si>
+  <si>
+    <t>Token 38: NO DOB OPTIMIZATION</t>
+  </si>
+  <si>
+    <t>Token 39: NO DOB OPTIMIZATION</t>
   </si>
 </sst>
 </file>
@@ -219,7 +237,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -227,11 +245,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -244,16 +291,61 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2877,16 +2969,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0F636F6-8B1D-2744-9461-9FAED0A203B3}">
-  <dimension ref="A1:R54"/>
+  <dimension ref="A1:R60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="173" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="53.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.1640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="53.1640625" customWidth="1"/>
     <col min="3" max="3" width="9.5" customWidth="1"/>
     <col min="4" max="4" width="9.33203125" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
@@ -2895,23 +2987,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C1" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>8</v>
@@ -3231,7 +3323,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="6">
         <f t="shared" si="5"/>
@@ -3267,11 +3359,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
+        <v>28</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
       <c r="F12">
         <f t="shared" ref="F12" si="6">L12-G12</f>
         <v>301755</v>
@@ -3295,11 +3387,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
+        <v>29</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
       <c r="F13">
         <f t="shared" ref="F13" si="8">L13-G13</f>
         <v>301775</v>
@@ -3756,7 +3848,7 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C30">
         <f>301766-D30</f>
@@ -3768,7 +3860,7 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C31">
         <f t="shared" ref="C31:C33" si="12">301766-D31</f>
@@ -3778,15 +3870,15 @@
         <v>229</v>
       </c>
       <c r="P31" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q31" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="Q31" s="6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C32">
         <f t="shared" si="12"/>
@@ -3812,7 +3904,7 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C33">
         <f t="shared" si="12"/>
@@ -3883,56 +3975,56 @@
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A45" s="7"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="8" t="s">
+      <c r="A45" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="D45" s="37"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="G45" s="38"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
+      <c r="J45" s="37"/>
+      <c r="K45" s="37"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A46" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C46" s="5" t="s">
+      <c r="A46" s="30"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D46" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="E46" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="F46" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="G46" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="H46" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="I46" s="5" t="s">
+      <c r="I46" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J46" s="5" t="s">
+      <c r="J46" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="K46" s="5" t="s">
+      <c r="K46" s="19" t="s">
         <v>13</v>
       </c>
       <c r="M46" s="1" t="s">
@@ -3943,37 +4035,37 @@
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A47" s="4">
+      <c r="A47" s="31">
         <v>1</v>
       </c>
-      <c r="B47" t="s">
-        <v>38</v>
-      </c>
-      <c r="C47" s="6">
-        <f>M47-D47</f>
+      <c r="B47" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C47" s="12">
+        <f t="shared" ref="C47:C57" si="13">M47-D47</f>
         <v>301625</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D47" s="12">
         <v>151</v>
       </c>
-      <c r="E47" s="6">
-        <f>D47/M47</f>
+      <c r="E47" s="12">
+        <f t="shared" ref="E47:E57" si="14">D47/M47</f>
         <v>5.0037113620698796E-4</v>
       </c>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="6">
-        <f>M47-J47</f>
-        <v>301776</v>
-      </c>
-      <c r="J47" s="6">
-        <v>0</v>
-      </c>
-      <c r="K47" s="6">
-        <f>J47/M47</f>
-        <v>0</v>
-      </c>
+      <c r="F47" s="13">
+        <f>M47-G47</f>
+        <v>301629</v>
+      </c>
+      <c r="G47" s="13">
+        <v>147</v>
+      </c>
+      <c r="H47" s="13">
+        <f>G47/M47</f>
+        <v>4.8711627167170353E-4</v>
+      </c>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14"/>
       <c r="M47">
         <v>301776</v>
       </c>
@@ -3982,29 +4074,27 @@
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A48" s="4">
-        <v>2</v>
-      </c>
-      <c r="B48" t="s">
-        <v>39</v>
-      </c>
-      <c r="C48" s="6">
-        <f>M48-D48</f>
-        <v>301662</v>
-      </c>
-      <c r="D48" s="6">
-        <v>114</v>
-      </c>
-      <c r="E48" s="6">
-        <f>D48/M48</f>
-        <v>3.7776363925560682E-4</v>
-      </c>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="11"/>
-      <c r="J48" s="11"/>
-      <c r="K48" s="11"/>
+      <c r="A48" s="32"/>
+      <c r="B48" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="17">
+        <f>M48-G48</f>
+        <v>280690</v>
+      </c>
+      <c r="G48" s="17">
+        <v>21086</v>
+      </c>
+      <c r="H48" s="17">
+        <f>G48/M48</f>
+        <v>6.9873018397751979E-2</v>
+      </c>
+      <c r="I48" s="18"/>
+      <c r="J48" s="18"/>
+      <c r="K48" s="18"/>
       <c r="M48">
         <v>301776</v>
       </c>
@@ -4013,45 +4103,29 @@
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A49" s="4">
-        <v>4</v>
-      </c>
-      <c r="B49" t="s">
-        <v>3</v>
-      </c>
-      <c r="C49" s="6">
-        <f>M49-D49</f>
-        <v>301728</v>
-      </c>
-      <c r="D49" s="6">
-        <v>48</v>
-      </c>
-      <c r="E49" s="6">
-        <f>D49/M49</f>
-        <v>1.590583744234134E-4</v>
-      </c>
-      <c r="F49">
-        <f t="shared" ref="F48:F54" si="13">M49-G49</f>
-        <v>294722</v>
-      </c>
-      <c r="G49">
-        <v>7054</v>
-      </c>
-      <c r="H49">
-        <f t="shared" ref="H48:H54" si="14">G49/M49</f>
-        <v>2.3374953607974126E-2</v>
-      </c>
-      <c r="I49" s="6">
-        <f t="shared" ref="I48:I54" si="15">M49-J49</f>
-        <v>294697</v>
-      </c>
-      <c r="J49" s="6">
-        <v>7079</v>
-      </c>
-      <c r="K49" s="6">
-        <f t="shared" ref="K48:K54" si="16">J49/M49</f>
-        <v>2.3457796511319653E-2</v>
-      </c>
+      <c r="A49" s="33">
+        <v>2</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" s="22">
+        <f t="shared" si="13"/>
+        <v>301662</v>
+      </c>
+      <c r="D49" s="22">
+        <v>114</v>
+      </c>
+      <c r="E49" s="22">
+        <f t="shared" si="14"/>
+        <v>3.7776363925560682E-4</v>
+      </c>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="23"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="23"/>
+      <c r="K49" s="23"/>
       <c r="M49">
         <v>301776</v>
       </c>
@@ -4060,44 +4134,44 @@
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A50" s="4">
-        <v>5</v>
-      </c>
-      <c r="B50" t="s">
-        <v>40</v>
-      </c>
-      <c r="C50" s="6">
-        <f>M50-D50</f>
-        <v>301773</v>
-      </c>
-      <c r="D50" s="6">
+      <c r="A50" s="34">
+        <v>4</v>
+      </c>
+      <c r="B50" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E50" s="6">
-        <f>D50/M50</f>
-        <v>9.9411484014633373E-6</v>
-      </c>
-      <c r="F50">
+      <c r="C50" s="25">
         <f t="shared" si="13"/>
-        <v>301776</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50">
+        <v>301728</v>
+      </c>
+      <c r="D50" s="25">
+        <v>48</v>
+      </c>
+      <c r="E50" s="25">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I50" s="6">
-        <f t="shared" si="15"/>
-        <v>301776</v>
-      </c>
-      <c r="J50" s="6">
-        <v>0</v>
-      </c>
-      <c r="K50" s="6">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1.590583744234134E-4</v>
+      </c>
+      <c r="F50" s="26">
+        <f>M50-G50</f>
+        <v>301732</v>
+      </c>
+      <c r="G50" s="26">
+        <v>44</v>
+      </c>
+      <c r="H50" s="26">
+        <f>G50/M50</f>
+        <v>1.4580350988812894E-4</v>
+      </c>
+      <c r="I50" s="25">
+        <f>M50-J50</f>
+        <v>294722</v>
+      </c>
+      <c r="J50" s="25">
+        <v>7054</v>
+      </c>
+      <c r="K50" s="25">
+        <f>J50/M50</f>
+        <v>2.3374953607974126E-2</v>
       </c>
       <c r="M50">
         <v>301776</v>
@@ -4107,37 +4181,27 @@
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A51" s="4">
-        <v>7</v>
-      </c>
-      <c r="B51" t="s">
-        <v>43</v>
-      </c>
-      <c r="C51" s="6">
-        <f>M51-D51</f>
-        <v>301725</v>
-      </c>
-      <c r="D51" s="6">
-        <v>51</v>
-      </c>
-      <c r="E51" s="6">
-        <f>D51/M51</f>
-        <v>1.6899952282487673E-4</v>
-      </c>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="6">
-        <f t="shared" si="15"/>
-        <v>301776</v>
-      </c>
-      <c r="J51" s="6">
-        <v>0</v>
-      </c>
-      <c r="K51" s="6">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
+      <c r="A51" s="32"/>
+      <c r="B51" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="17">
+        <f>M51-G51</f>
+        <v>294697</v>
+      </c>
+      <c r="G51" s="17">
+        <v>7079</v>
+      </c>
+      <c r="H51" s="17">
+        <f t="shared" ref="H51:H58" si="15">G51/M51</f>
+        <v>2.3457796511319653E-2</v>
+      </c>
+      <c r="I51" s="18"/>
+      <c r="J51" s="18"/>
+      <c r="K51" s="18"/>
       <c r="M51">
         <v>301776</v>
       </c>
@@ -4146,43 +4210,43 @@
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A52" s="4">
-        <v>16</v>
-      </c>
-      <c r="B52" t="s">
-        <v>1</v>
-      </c>
-      <c r="C52" s="6">
-        <f>M52-D52</f>
+      <c r="A52" s="34">
+        <v>5</v>
+      </c>
+      <c r="B52" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C52" s="25">
+        <f t="shared" si="13"/>
         <v>301773</v>
       </c>
-      <c r="D52" s="6">
+      <c r="D52" s="25">
         <v>3</v>
       </c>
-      <c r="E52" s="6">
-        <f>D52/M52</f>
+      <c r="E52" s="25">
+        <f t="shared" si="14"/>
         <v>9.9411484014633373E-6</v>
       </c>
-      <c r="F52">
-        <f t="shared" si="13"/>
-        <v>301776</v>
-      </c>
-      <c r="G52">
+      <c r="F52" s="26">
+        <f>M52-G52</f>
+        <v>301776</v>
+      </c>
+      <c r="G52" s="26">
         <v>0</v>
       </c>
-      <c r="H52">
-        <f t="shared" si="14"/>
+      <c r="H52" s="26">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I52" s="6">
-        <f t="shared" si="15"/>
-        <v>301776</v>
-      </c>
-      <c r="J52" s="6">
+      <c r="I52" s="25">
+        <f>M52-J52</f>
+        <v>301776</v>
+      </c>
+      <c r="J52" s="25">
         <v>0</v>
       </c>
-      <c r="K52" s="6">
-        <f t="shared" si="16"/>
+      <c r="K52" s="25">
+        <f>J52/M52</f>
         <v>0</v>
       </c>
       <c r="M52">
@@ -4193,45 +4257,27 @@
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A53" s="4">
-        <v>38</v>
-      </c>
-      <c r="B53" t="s">
-        <v>41</v>
-      </c>
-      <c r="C53" s="6">
-        <f>M53-D53</f>
-        <v>301727</v>
-      </c>
-      <c r="D53" s="6">
-        <v>49</v>
-      </c>
-      <c r="E53" s="6">
-        <f>D53/M53</f>
-        <v>1.6237209055723452E-4</v>
-      </c>
-      <c r="F53">
-        <f t="shared" si="13"/>
-        <v>301776</v>
-      </c>
-      <c r="G53">
+      <c r="A53" s="32"/>
+      <c r="B53" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="17">
+        <f t="shared" ref="F53:F58" si="16">M53-G53</f>
+        <v>301776</v>
+      </c>
+      <c r="G53" s="17">
         <v>0</v>
       </c>
-      <c r="H53">
-        <f t="shared" si="14"/>
+      <c r="H53" s="17">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I53" s="6">
-        <f t="shared" si="15"/>
-        <v>301776</v>
-      </c>
-      <c r="J53" s="6">
-        <v>0</v>
-      </c>
-      <c r="K53" s="6">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
+      <c r="I53" s="18"/>
+      <c r="J53" s="18"/>
+      <c r="K53" s="18"/>
       <c r="M53">
         <v>301776</v>
       </c>
@@ -4240,45 +4286,37 @@
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A54" s="4">
-        <v>39</v>
-      </c>
-      <c r="B54" t="s">
+      <c r="A54" s="34">
+        <v>7</v>
+      </c>
+      <c r="B54" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C54" s="6">
-        <f>M54-D54</f>
-        <v>301773</v>
-      </c>
-      <c r="D54" s="6">
-        <v>3</v>
-      </c>
-      <c r="E54" s="6">
-        <f>D54/M54</f>
-        <v>9.9411484014633373E-6</v>
-      </c>
-      <c r="F54">
+      <c r="C54" s="25">
         <f t="shared" si="13"/>
-        <v>301776</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="H54">
+        <v>301725</v>
+      </c>
+      <c r="D54" s="25">
+        <v>51</v>
+      </c>
+      <c r="E54" s="25">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I54" s="6">
+        <v>1.6899952282487673E-4</v>
+      </c>
+      <c r="F54" s="26">
+        <f t="shared" si="16"/>
+        <v>301729</v>
+      </c>
+      <c r="G54" s="26">
+        <v>47</v>
+      </c>
+      <c r="H54" s="26">
         <f t="shared" si="15"/>
-        <v>301776</v>
-      </c>
-      <c r="J54" s="6">
-        <v>0</v>
-      </c>
-      <c r="K54" s="6">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
+        <v>1.5574465828959228E-4</v>
+      </c>
+      <c r="I54" s="27"/>
+      <c r="J54" s="27"/>
+      <c r="K54" s="27"/>
       <c r="M54">
         <v>301776</v>
       </c>
@@ -4286,13 +4324,243 @@
         <v>2064313</v>
       </c>
     </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A55" s="32"/>
+      <c r="B55" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="17">
+        <f t="shared" si="16"/>
+        <v>293632</v>
+      </c>
+      <c r="G55" s="17">
+        <v>8144</v>
+      </c>
+      <c r="H55" s="17">
+        <f t="shared" si="15"/>
+        <v>2.6986904193839138E-2</v>
+      </c>
+      <c r="I55" s="18"/>
+      <c r="J55" s="18"/>
+      <c r="K55" s="18"/>
+      <c r="M55">
+        <v>301776</v>
+      </c>
+      <c r="N55">
+        <v>2064313</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A56" s="33">
+        <v>16</v>
+      </c>
+      <c r="B56" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" s="22">
+        <f t="shared" si="13"/>
+        <v>301773</v>
+      </c>
+      <c r="D56" s="22">
+        <v>3</v>
+      </c>
+      <c r="E56" s="22">
+        <f t="shared" si="14"/>
+        <v>9.9411484014633373E-6</v>
+      </c>
+      <c r="F56" s="28">
+        <f t="shared" si="16"/>
+        <v>301776</v>
+      </c>
+      <c r="G56" s="28">
+        <v>0</v>
+      </c>
+      <c r="H56" s="28">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I56" s="22">
+        <f>M56-J56</f>
+        <v>301776</v>
+      </c>
+      <c r="J56" s="22">
+        <v>0</v>
+      </c>
+      <c r="K56" s="22">
+        <f>J56/M56</f>
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>301776</v>
+      </c>
+      <c r="N56">
+        <v>2064313</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A57" s="31">
+        <v>38</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C57" s="12">
+        <f t="shared" si="13"/>
+        <v>301727</v>
+      </c>
+      <c r="D57" s="12">
+        <v>49</v>
+      </c>
+      <c r="E57" s="12">
+        <f t="shared" si="14"/>
+        <v>1.6237209055723452E-4</v>
+      </c>
+      <c r="F57" s="13">
+        <f t="shared" si="16"/>
+        <v>301730</v>
+      </c>
+      <c r="G57" s="13">
+        <v>46</v>
+      </c>
+      <c r="H57" s="13">
+        <f t="shared" si="15"/>
+        <v>1.5243094215577118E-4</v>
+      </c>
+      <c r="I57" s="12">
+        <f>M57-J57</f>
+        <v>294878</v>
+      </c>
+      <c r="J57" s="12">
+        <v>6898</v>
+      </c>
+      <c r="K57" s="12">
+        <f>J57/M57</f>
+        <v>2.2858013891098032E-2</v>
+      </c>
+      <c r="M57">
+        <v>301776</v>
+      </c>
+      <c r="N57">
+        <v>2064313</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A58" s="32"/>
+      <c r="B58" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="17">
+        <f t="shared" si="16"/>
+        <v>294856</v>
+      </c>
+      <c r="G58" s="17">
+        <v>6920</v>
+      </c>
+      <c r="H58" s="17">
+        <f t="shared" si="15"/>
+        <v>2.2930915646042098E-2</v>
+      </c>
+      <c r="I58" s="18"/>
+      <c r="J58" s="18"/>
+      <c r="K58" s="18"/>
+      <c r="M58">
+        <v>301776</v>
+      </c>
+      <c r="N58">
+        <v>2064313</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A59" s="34">
+        <v>39</v>
+      </c>
+      <c r="B59" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C59" s="25">
+        <f>M59-D59</f>
+        <v>301773</v>
+      </c>
+      <c r="D59" s="25">
+        <v>3</v>
+      </c>
+      <c r="E59" s="25">
+        <f>D59/M59</f>
+        <v>9.9411484014633373E-6</v>
+      </c>
+      <c r="F59" s="26">
+        <f>M59-G59</f>
+        <v>301776</v>
+      </c>
+      <c r="G59" s="26">
+        <v>0</v>
+      </c>
+      <c r="H59" s="26">
+        <f>G59/M59</f>
+        <v>0</v>
+      </c>
+      <c r="I59" s="25">
+        <f>M59-J59</f>
+        <v>301776</v>
+      </c>
+      <c r="J59" s="25">
+        <v>0</v>
+      </c>
+      <c r="K59" s="25">
+        <f>J59/M59</f>
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>301776</v>
+      </c>
+      <c r="N59">
+        <v>2064313</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A60" s="32"/>
+      <c r="B60" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="15">
+        <f>M60-G60</f>
+        <v>301776</v>
+      </c>
+      <c r="G60" s="17">
+        <v>0</v>
+      </c>
+      <c r="H60" s="15">
+        <f>G60/M60</f>
+        <v>0</v>
+      </c>
+      <c r="I60" s="16"/>
+      <c r="J60" s="16"/>
+      <c r="K60" s="16"/>
+      <c r="M60">
+        <v>301776</v>
+      </c>
+      <c r="N60">
+        <v>2064313</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="A45:A46"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="C45:E45"/>
+    <mergeCell ref="I45:K45"/>
     <mergeCell ref="F45:H45"/>
-    <mergeCell ref="I45:K45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
